--- a/04_単体テスト/単体試験仕様書/チーム1/ログイン画面_単体試験仕様書_シュウ.xlsx
+++ b/04_単体テスト/単体試験仕様書/チーム1/ログイン画面_単体試験仕様書_シュウ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\デスクトップ\java培训\1月\GitHub\04_単体テスト\単体試験仕様書\チーム1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06225BA-EE11-4FBB-B16C-5199A1103BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3514388-A06A-452B-8A7B-DA0623D2AE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初期画面表示" sheetId="36" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -313,11 +313,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員情報管理システム</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
+    <t>シュウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -723,120 +727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -861,6 +751,120 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -883,16 +887,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>164042</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240242</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121708</xdr:rowOff>
+      <xdr:rowOff>68368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>167757</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>245862</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>73517</xdr:rowOff>
+      <xdr:rowOff>16367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -915,8 +919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="772583"/>
-          <a:ext cx="4152381" cy="4523809"/>
+          <a:off x="2040467" y="716068"/>
+          <a:ext cx="4120420" cy="4577149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,7 +1412,7 @@
   <dimension ref="A1:AP236"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
@@ -1420,110 +1424,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="24" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="37" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="28" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29" t="s">
-        <v>40</v>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="39" t="s">
+        <v>41</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="28" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29" t="s">
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28">
         <v>44949</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:42" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
@@ -11643,6 +11647,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -11653,13 +11664,6 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11692,114 +11696,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25" t="str">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="31" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="24" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25" t="str">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="31" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="37" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="39" t="s">
-        <v>41</v>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36" t="s">
+        <v>40</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="28" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29" t="str">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="39" t="str">
         <f>初期画面表示!M2</f>
-        <v>社員情報管理システム</v>
+        <v>勤怠管理システム</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="28" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29" t="str">
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="39" t="str">
         <f>初期画面表示!V2</f>
         <v>ログイン</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28">
         <v>44949</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
@@ -11840,24 +11844,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="58"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -11890,28 +11894,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
       <c r="S5" s="7" t="s">
         <v>18</v>
       </c>
@@ -11934,24 +11938,24 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="45"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -11972,26 +11976,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -12012,7 +12016,7 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="50" t="s">
         <v>22</v>
       </c>
@@ -12054,7 +12058,7 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="50" t="s">
         <v>23</v>
       </c>
@@ -12102,24 +12106,24 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -12140,26 +12144,26 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -12180,7 +12184,7 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="50" t="s">
         <v>22</v>
       </c>
@@ -12222,7 +12226,7 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="50" t="s">
         <v>23</v>
       </c>
@@ -12243,9 +12247,7 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="52"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
         <v>18</v>
@@ -12270,24 +12272,24 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="55"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -12308,26 +12310,26 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -12348,7 +12350,7 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="50" t="s">
         <v>33</v>
       </c>
@@ -12390,7 +12392,7 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="50" t="s">
         <v>38</v>
       </c>
@@ -12432,7 +12434,7 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="50" t="s">
         <v>26</v>
       </c>
@@ -12474,26 +12476,26 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="45"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7" t="s">
         <v>18</v>
@@ -12524,24 +12526,24 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="55"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -12562,24 +12564,24 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -12600,28 +12602,28 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
       <c r="S22" s="7" t="s">
         <v>18</v>
       </c>
@@ -12644,26 +12646,26 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
       <c r="S23" s="7" t="s">
         <v>18</v>
       </c>
@@ -12686,24 +12688,24 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -12724,26 +12726,26 @@
       <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7" t="s">
         <v>18</v>
@@ -12766,26 +12768,26 @@
       <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7" t="s">
@@ -12808,68 +12810,68 @@
       <c r="AJ26" s="7"/>
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -12892,24 +12894,24 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -12930,26 +12932,26 @@
       <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="58"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -12972,24 +12974,24 @@
       <c r="AJ30" s="7"/>
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="20"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -13010,24 +13012,24 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="58"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -13048,24 +13050,24 @@
       <c r="AJ32" s="7"/>
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="58"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -13086,32 +13088,44 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
@@ -13126,32 +13140,44 @@
       <c r="AJ34" s="8"/>
     </row>
     <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -13166,32 +13192,44 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" ht="28.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="9">
+        <v>44951</v>
+      </c>
+      <c r="T36" s="9">
+        <v>44951</v>
+      </c>
+      <c r="U36" s="9">
+        <v>44951</v>
+      </c>
+      <c r="V36" s="9">
+        <v>44951</v>
+      </c>
+      <c r="W36" s="9">
+        <v>44951</v>
+      </c>
+      <c r="X36" s="9">
+        <v>44951</v>
+      </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
@@ -13206,26 +13244,26 @@
       <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -13246,26 +13284,26 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" ht="28.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -21039,6 +21077,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="B17:R17"/>
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="R1:U1"/>
@@ -21055,35 +21118,10 @@
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A37:R37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S34:AJ34" xr:uid="{3FCFDBD8-BCAF-FD4F-B521-B180AABC7AB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y34:AJ34" xr:uid="{3FCFDBD8-BCAF-FD4F-B521-B180AABC7AB5}">
       <formula1>"○,×,ー"</formula1>
     </dataValidation>
   </dataValidations>
